--- a/config/testcases/Report_BE.IST01ReadTheStory(Clone).xlsx
+++ b/config/testcases/Report_BE.IST01ReadTheStory(Clone).xlsx
@@ -61,13 +61,13 @@
     <t>Chọn activity</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>TC3</t>
   </si>
   <si>
     <t>Kiểm tra data ảnh bìa</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>TC4</t>
@@ -169,7 +169,7 @@
     <t>Đợi game xuất hiện</t>
   </si>
   <si>
-    <t>PlayGame,30</t>
+    <t>*T01ReadTheStory*,30</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra ảnh thumb </t>
@@ -205,7 +205,7 @@
     <t>waitForObjectNotPresent</t>
   </si>
   <si>
-    <t>PlayGame,60</t>
+    <t>*T01ReadTheStory*,60</t>
   </si>
   <si>
     <t>Loop</t>
@@ -337,10 +337,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -836,11 +836,11 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -867,16 +867,16 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -905,14 +905,14 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="15"/>
@@ -1117,7 +1117,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="15"/>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="15"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="20"/>
@@ -1302,8 +1302,8 @@
       <c r="Z7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>11</v>
+      <c r="A8" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>37</v>
@@ -1314,12 +1314,12 @@
       <c r="D8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="28" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="20"/>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>28</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>52</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="10" ht="53.25" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>32</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="20"/>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="15"/>
@@ -7031,9 +7031,18 @@
       <c r="Z142" s="41"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="41"/>
-      <c r="B143" s="41"/>
-      <c r="C143" s="41"/>
+      <c r="A143" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickLesson")</f>
+        <v>clickLesson</v>
+      </c>
+      <c r="B143" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
+        <v>element,component,property</v>
+      </c>
+      <c r="C143" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D143" s="41"/>
       <c r="E143" s="41"/>
       <c r="F143" s="41"/>
@@ -7059,9 +7068,15 @@
       <c r="Z143" s="41"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="41"/>
+      <c r="A144" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMapMgo")</f>
+        <v>swipeMapMgo</v>
+      </c>
       <c r="B144" s="41"/>
-      <c r="C144" s="41"/>
+      <c r="C144" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D144" s="41"/>
       <c r="E144" s="41"/>
       <c r="F144" s="41"/>
@@ -7087,9 +7102,18 @@
       <c r="Z144" s="41"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="41"/>
-      <c r="B145" s="41"/>
-      <c r="C145" s="41"/>
+      <c r="A145" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"verifyFlow")</f>
+        <v>verifyFlow</v>
+      </c>
+      <c r="B145" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"file expected")</f>
+        <v>file expected</v>
+      </c>
+      <c r="C145" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D145" s="41"/>
       <c r="E145" s="41"/>
       <c r="F145" s="41"/>
@@ -7115,9 +7139,15 @@
       <c r="Z145" s="41"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="41"/>
+      <c r="A146" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFileWhichCondition")</f>
+        <v>setVariableFileWhichCondition</v>
+      </c>
       <c r="B146" s="41"/>
-      <c r="C146" s="41"/>
+      <c r="C146" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D146" s="41"/>
       <c r="E146" s="41"/>
       <c r="F146" s="41"/>
@@ -7143,7 +7173,10 @@
       <c r="Z146" s="41"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="41"/>
+      <c r="A147" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfStringFile")</f>
+        <v>setVariableTypeOfStringFile</v>
+      </c>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
       <c r="D147" s="41"/>
@@ -7171,7 +7204,10 @@
       <c r="Z147" s="41"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="41"/>
+      <c r="A148" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfIntFile")</f>
+        <v>setVariableTypeOfIntFile</v>
+      </c>
       <c r="B148" s="41"/>
       <c r="C148" s="41"/>
       <c r="D148" s="41"/>
@@ -7199,7 +7235,10 @@
       <c r="Z148" s="41"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="41"/>
+      <c r="A149" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPath")</f>
+        <v>getPath</v>
+      </c>
       <c r="B149" s="41"/>
       <c r="C149" s="41"/>
       <c r="D149" s="41"/>
